--- a/assets/files/Portfolio matrix for MITBMUN22.xlsx
+++ b/assets/files/Portfolio matrix for MITBMUN22.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mitbmun2022.github.io\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927F56E-1FF5-4414-B543-7AD546A6AAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CBA2E6-7572-4E71-BD07-431E0CBE437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6E23F96-2086-4AF0-8BC8-641864C3F5A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C6E23F96-2086-4AF0-8BC8-641864C3F5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNHRC" sheetId="1" r:id="rId1"/>
     <sheet name="AIPPM" sheetId="2" r:id="rId2"/>
-    <sheet name="CRISIS" sheetId="3" r:id="rId3"/>
+    <sheet name="_x0009__x0009_JCC COUNTRY MATRIX_x0009__x0009_" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,16 +36,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t>JCC COUNTRY MATRIX</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>People's Republic of China</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>French Republic</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>North Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +161,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63D297"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F9EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +215,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E411051-6A31-4909-9457-79586220ACDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -421,12 +596,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ABB783-17DA-48E8-AAFE-38E56D1CE283}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/files/Portfolio matrix for MITBMUN22.xlsx
+++ b/assets/files/Portfolio matrix for MITBMUN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mitbmun2022.github.io\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CBA2E6-7572-4E71-BD07-431E0CBE437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01EC99-B07B-48A3-BC3F-6DBFA38D5E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C6E23F96-2086-4AF0-8BC8-641864C3F5A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C6E23F96-2086-4AF0-8BC8-641864C3F5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNHRC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>hi</t>
   </si>
@@ -147,13 +147,193 @@
   </si>
   <si>
     <t>North Korea</t>
+  </si>
+  <si>
+    <t>Narendra  Modi</t>
+  </si>
+  <si>
+    <t>Amit shah</t>
+  </si>
+  <si>
+    <t>Sonia gandhi(INC)</t>
+  </si>
+  <si>
+    <t>akhilesh</t>
+  </si>
+  <si>
+    <t>mulayam singh</t>
+  </si>
+  <si>
+    <t>shashi Tharoor</t>
+  </si>
+  <si>
+    <t>yogi adityanath</t>
+  </si>
+  <si>
+    <t>Deepak adhikari (AITC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Banerjee </t>
+  </si>
+  <si>
+    <t>Arvind Kejriwal</t>
+  </si>
+  <si>
+    <t>Smriti Zubin Irani (BJP)</t>
+  </si>
+  <si>
+    <t>Asaddudin Owaisi (AIMIM)</t>
+  </si>
+  <si>
+    <t>Jaleel Syed Imtiaz (AIMIM)</t>
+  </si>
+  <si>
+    <t>Maddila Gurumoorthy (YSRC)</t>
+  </si>
+  <si>
+    <t>YS jagan Mohan Reddy (YSRC)</t>
+  </si>
+  <si>
+    <t>Gautam Gambhir (BJP)</t>
+  </si>
+  <si>
+    <t>Rahul Gandhi (inc)</t>
+  </si>
+  <si>
+    <t>Manish Tiwari (inc)</t>
+  </si>
+  <si>
+    <t>Nusrat Jahan Ruhi (AITC)</t>
+  </si>
+  <si>
+    <t>Sudipp Bandyopadhyay (AITC)</t>
+  </si>
+  <si>
+    <t>Gajanan Chandrakant Kirtikar (SS)</t>
+  </si>
+  <si>
+    <t>Uddhav Thackeray (SS)</t>
+  </si>
+  <si>
+    <t>Dileshwar Kamait (JD)</t>
+  </si>
+  <si>
+    <t>Vijay Kumar (JD)</t>
+  </si>
+  <si>
+    <t>Kavita Singh (JD)</t>
+  </si>
+  <si>
+    <t>Bhartruhari Mahtab (BJD)</t>
+  </si>
+  <si>
+    <t>Pinaki Misra (BJD)</t>
+  </si>
+  <si>
+    <t>Rajashree Mallick (BJD)</t>
+  </si>
+  <si>
+    <t>Shyam singh yadav (BSP)</t>
+  </si>
+  <si>
+    <t>Sangeeta Azad(BSP)</t>
+  </si>
+  <si>
+    <t>Abu haseem khan Choudhary (INC)</t>
+  </si>
+  <si>
+    <t>Jasbeer singh gill (INC)</t>
+  </si>
+  <si>
+    <t>Navneet Ravi Rana (ind.)</t>
+  </si>
+  <si>
+    <t>Sumalatha Ambareesh (ind)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamata Banerjee </t>
+  </si>
+  <si>
+    <t>Dr. Manmohan singh</t>
+  </si>
+  <si>
+    <t>Jaya Bachchan</t>
+  </si>
+  <si>
+    <t>Shivraj Singh Chouhan</t>
+  </si>
+  <si>
+    <t>Ashok Gehlot</t>
+  </si>
+  <si>
+    <t>M.K Stalin</t>
+  </si>
+  <si>
+    <t>Naveen Patnaik</t>
+  </si>
+  <si>
+    <t>Jairam Thakur</t>
+  </si>
+  <si>
+    <t>Bhupendra Patel</t>
+  </si>
+  <si>
+    <t>Pema Khandu</t>
+  </si>
+  <si>
+    <t>Himanta Biswa Sarma</t>
+  </si>
+  <si>
+    <t>Bhupesh Bhagel</t>
+  </si>
+  <si>
+    <t>Parmod Sawant</t>
+  </si>
+  <si>
+    <t>Manohar Lal</t>
+  </si>
+  <si>
+    <t>Hemant Soren</t>
+  </si>
+  <si>
+    <t>Basavaraj Bommai</t>
+  </si>
+  <si>
+    <t>Pinarai Vijayan</t>
+  </si>
+  <si>
+    <t>N.Biren Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conrad Kongkal Sangam </t>
+  </si>
+  <si>
+    <t>N. Rangaswamy</t>
+  </si>
+  <si>
+    <t>Charanjit Singh Channi</t>
+  </si>
+  <si>
+    <t>Piyush Goyal</t>
+  </si>
+  <si>
+    <t>Mallikarjun Kharge</t>
+  </si>
+  <si>
+    <t>Anand Sharma</t>
+  </si>
+  <si>
+    <t>Mukhtar Abbas Naqvi</t>
+  </si>
+  <si>
+    <t>Portfolia name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +359,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -234,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -251,6 +439,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,12 +772,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC6D96-FB2F-4487-BDE5-2F1C11B109EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -598,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ABB783-17DA-48E8-AAFE-38E56D1CE283}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/assets/files/Portfolio matrix for MITBMUN22.xlsx
+++ b/assets/files/Portfolio matrix for MITBMUN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mitbmun2022.github.io\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01EC99-B07B-48A3-BC3F-6DBFA38D5E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE43576F-29EE-45A1-B67D-ECCE47097056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C6E23F96-2086-4AF0-8BC8-641864C3F5A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6E23F96-2086-4AF0-8BC8-641864C3F5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNHRC" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
-  <si>
-    <t>hi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="169">
   <si>
     <t>JCC COUNTRY MATRIX</t>
   </si>
@@ -327,13 +324,232 @@
   </si>
   <si>
     <t>Portfolia name</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina </t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational state of)</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Venenzuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin </t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Eritria</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Kazakhastan</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine </t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Afghanistan(o)</t>
+  </si>
+  <si>
+    <t>Iran(o)</t>
+  </si>
+  <si>
+    <t>Iraq(o)</t>
+  </si>
+  <si>
+    <t>Syria(o)</t>
+  </si>
+  <si>
+    <t>Myanmar(o)</t>
+  </si>
+  <si>
+    <t>Bangladesh(o)</t>
+  </si>
+  <si>
+    <t>Thailand(o)</t>
+  </si>
+  <si>
+    <t>Laos(o)</t>
+  </si>
+  <si>
+    <t>Combodia(o)</t>
+  </si>
+  <si>
+    <t>Canada(o)</t>
+  </si>
+  <si>
+    <t>Israel(o)</t>
+  </si>
+  <si>
+    <t>Palestine(o)</t>
+  </si>
+  <si>
+    <t>Philippines(o)</t>
+  </si>
+  <si>
+    <t>Singapore(o)</t>
+  </si>
+  <si>
+    <t>Bahrain(o)</t>
+  </si>
+  <si>
+    <t>Egypt(o)</t>
+  </si>
+  <si>
+    <t>Saudi Arabia(o)</t>
+  </si>
+  <si>
+    <t>Kuwait(o)</t>
+  </si>
+  <si>
+    <t>Oman(o)</t>
+  </si>
+  <si>
+    <t>Turkey(o)</t>
+  </si>
+  <si>
+    <t>Jordan(o)</t>
+  </si>
+  <si>
+    <t>Vietnam(o)</t>
+  </si>
+  <si>
+    <t>Sri Lanka(o)</t>
+  </si>
+  <si>
+    <t>Bhutan(o)</t>
+  </si>
+  <si>
+    <t>Maldives(o)</t>
+  </si>
+  <si>
+    <t>Hong Kong(o)</t>
+  </si>
+  <si>
+    <t>Lebanon(o)</t>
+  </si>
+  <si>
+    <t>Liberia(o)</t>
+  </si>
+  <si>
+    <t>South Sudan(o)</t>
+  </si>
+  <si>
+    <t>Kenya(o)</t>
+  </si>
+  <si>
+    <t>Central African Republic(o)</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo(o)</t>
+  </si>
+  <si>
+    <t>Colombia(o)</t>
+  </si>
+  <si>
+    <t>*(O) refers to observer nations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +577,30 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -419,10 +657,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -439,10 +679,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1CBC9143-8853-42DC-9571-7745BE76F4A4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,19 +1005,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E411051-6A31-4909-9457-79586220ACDA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C43" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -774,316 +1678,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC6D96-FB2F-4487-BDE5-2F1C11B109EF}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{40024DF0-10EA-4464-A979-3910BAA01BE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1108,128 +2015,128 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
